--- a/bots/crawl_ch/output/electronics_2022-07-31.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-31.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:50</t>
+          <t>2022-07-31 20:58:20</t>
         </is>
       </c>
     </row>
